--- a/20_営業/09_AR/MD050/MD050_CFR_003_A23_消費税差額作成処理（補足資料）.xlsx
+++ b/20_営業/09_AR/MD050/MD050_CFR_003_A23_消費税差額作成処理（補足資料）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19401～19500\E_本稼動_19496【グループ会社】グループ会社統合対応\20_成果物\XXCFR003A23C 消費税差額作成処理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19962【AR】インボイス本体差額の情報系連携\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18996" windowHeight="11880" tabRatio="842" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18996" windowHeight="11880" tabRatio="842" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="646">
   <si>
     <t>"WAITING"</t>
   </si>
@@ -2721,6 +2721,35 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">"消費税差額作成"
+※プロファイル.XXCFR:取引タイプ_消費税差額作成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>伊藤園の取引タイプ_消費税差額作成</t>
+    </r>
+    <rPh sb="24" eb="26">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">固定値（請求書差額調整部署（9080））
 ※プロファイル:XXCFR:起票部門_消費税差額
 </t>
@@ -2728,7 +2757,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -2771,7 +2799,6 @@
       <rPr>
         <strike/>
         <sz val="10"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -2782,7 +2809,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -2822,203 +2848,9 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">"消費税差額作成"
-※プロファイル.XXCFR:取引タイプ_消費税差額作成
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>伊藤園の取引タイプ_消費税差額作成</t>
-    </r>
-    <rPh sb="24" eb="26">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サガク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"1011"（財務経理部）
-※プロファイル.XXCFR:部門コード_財務経理部
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>各社の管理部門
-請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.部門コード_管理部門</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>"消費税差額作成"
-※プロファイル.XXCFR:取引タイプ_消費税差額作成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-伊藤園の取引タイプ_消費税差額作成</t>
-    </r>
-    <rPh sb="24" eb="26">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サガク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>各社の取引タイプ：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">"消費税差額作成"
-</t>
-    </r>
-    <r>
       <rPr>
         <strike/>
         <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">※プロファイル.XXCFR:取引タイプ_消費税差額作成
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.取引タイプ_消費税差額作成</t>
-    </r>
-    <rPh sb="33" eb="35">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サガク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>各社の取引タイプ：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">"消費税差額作成"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※プロファイル.XXCFR:取引タイプ_消費税差額作成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.取引タイプ_消費税差額作成</t>
-    </r>
-    <rPh sb="33" eb="35">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サガク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -3039,12 +2871,224 @@
       <rPr>
         <strike/>
         <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※プロファイル.XXCFR:会社コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+請求先顧客の請求先拠点に紐づく会社コード（各社部門情報.DFF10(伝票作成会社)）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"1011"（財務経理部）
+※プロファイル.XXCFR:部門コード_財務経理部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>各社の管理部門
+請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.部門コード_管理部門</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"消費税差額作成"
+※プロファイル.XXCFR:取引タイプ_消費税差額作成
+伊藤園の取引タイプ_消費税差額作成</t>
+    <rPh sb="24" eb="26">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>固定値（請求書差額調整部署（9080））
+※プロファイル:XXCFR:起票部門_本体差額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+請求書差額調整部門
+請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.起票部門_本体差額</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コ_x0000__x0000__x0003_</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>_x0002__x0006_!_x0002_</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">
+#_x0002_</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>_x000D_&amp;_x0002__x0011_</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t/>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ホンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"001"（伊藤園）
+※プロファイル.XXCFR:会社コード
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求先顧客の請求先拠点に紐づく会社コード（各社部門情報.DFF10(伝票作成会社)）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"9080"（請求書差額調整）
+※プロファイル:XXCFR:起票部門_本体差額
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求書差額調整部門
+請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.起票部門_本体差額</t>
+    </r>
+    <rPh sb="88" eb="90">
+      <t>ホンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"1011"（財務経理部）
+※プロファイル.XXCFR:部門コード_財務経理部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>各社の管理部門
+請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.部門コード_管理部門</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>※プロファイル.XXCFR:会社コード</t>
+      <t>各社の取引タイプ："消費税差額作成"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※プロファイル.XXCFR:取引タイプ_消費税差額作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.取引タイプ_消費税差額作成</t>
     </r>
     <r>
       <rPr>
@@ -3055,47 +3099,20 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-請求先顧客の請求先拠点に紐づく会社コード（各社部門情報.DFF10(伝票作成会社)）</t>
+参照タイプ名：取引タイプ（AR）
+参照タイプ項目名：本体差額取引タイプ</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"001"（伊藤園）
-※プロファイル.XXCFR:会社コード
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>請求先顧客の請求先拠点に紐づく会社コード（各社部門情報.DFF10(伝票作成会社)）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"9080"（請求書差額調整）
-※プロファイル:XXCFR:起票部門_本体差額
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>請求書差額調整部門
-請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.起票部門_本体差額</t>
-    </r>
-    <rPh sb="88" eb="90">
-      <t>ホンタイ</t>
+    <rPh sb="33" eb="35">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3109,8 +3126,39 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>固定値（請求書差額調整部署（9080））
-※プロファイル:XXCFR:起票部門_本体差額</t>
+      <t>各社の取引タイプ："消費税差額作成"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※プロファイル.XXCFR:取引タイプ_消費税差額作成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.取引タイプ_消費税差額作成</t>
     </r>
     <r>
       <rPr>
@@ -3130,39 +3178,93 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>請求書差額調整部門
-請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.起票部門_本体差額</t>
+      <t>参照タイプ名：取引タイプ（AR）
+参照タイプ項目名：消費税差額取引タイプ</t>
     </r>
-    <rPh sb="0" eb="3">
-      <t>コ_x0000__x0000__x0003_</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="33" eb="35">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
       <t>サガク</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>_x0002__x0006_!_x0002_</t>
-    </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>各社の取引タイプ："消費税差額作成"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">
-#_x0002_</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>_x000D_&amp;_x0002__x0011_</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">※プロファイル.XXCFR:取引タイプ_消費税差額作成
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求先顧客の請求先拠点に紐づく会社コードより取得した各社部門情報.取引タイプ_消費税差額作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+参照タイプ名：取引タイプ（AR）
+参照タイプ項目名：消費税差額取引タイプ</t>
+    </r>
+    <rPh sb="33" eb="35">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ショウヒゼイ</t>
     </rPh>
     <rPh sb="42" eb="44">
-      <t/>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ホンタイ</t>
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3171,7 +3273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
@@ -3317,6 +3419,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF00FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3817,7 +3926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4148,22 +4257,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4177,8 +4283,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFFF99CC"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFDE9D9"/>
       <color rgb="FF000000"/>
@@ -7621,7 +7727,7 @@
   </sheetPr>
   <dimension ref="B1:G308"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -7675,10 +7781,10 @@
         <v>392</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F4" s="20"/>
     </row>
@@ -7780,10 +7886,10 @@
         <v>393</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F13" s="20"/>
     </row>
@@ -7862,7 +7968,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="2:6" ht="48">
+    <row r="19" spans="2:6" ht="95.4" customHeight="1">
       <c r="B19" s="25" t="s">
         <v>86</v>
       </c>
@@ -7870,10 +7976,10 @@
         <v>432</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="F19" s="20"/>
     </row>
@@ -8097,7 +8203,7 @@
         <v>460</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24">
@@ -9484,11 +9590,11 @@
       <c r="C173" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="D173" s="110" t="s">
-        <v>633</v>
-      </c>
-      <c r="E173" s="111" t="s">
+      <c r="D173" s="112" t="s">
         <v>634</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>635</v>
       </c>
       <c r="F173" s="20"/>
       <c r="G173" s="21"/>
@@ -10923,13 +11029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
@@ -10997,13 +11100,13 @@
         <v>75</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -11205,13 +11308,13 @@
         <v>433</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G20" s="15"/>
     </row>
@@ -11222,14 +11325,14 @@
       <c r="C21" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="D21" s="110" t="s">
-        <v>636</v>
-      </c>
-      <c r="E21" s="110" t="s">
-        <v>636</v>
-      </c>
-      <c r="F21" s="110" t="s">
-        <v>636</v>
+      <c r="D21" s="112" t="s">
+        <v>637</v>
+      </c>
+      <c r="E21" s="112" t="s">
+        <v>637</v>
+      </c>
+      <c r="F21" s="112" t="s">
+        <v>637</v>
       </c>
       <c r="G21" s="15"/>
     </row>
@@ -12325,8 +12428,8 @@
   </sheetPr>
   <dimension ref="B1:G308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
@@ -12630,11 +12733,11 @@
       <c r="C4" s="89" t="s">
         <v>519</v>
       </c>
-      <c r="D4" s="112" t="s">
-        <v>637</v>
-      </c>
-      <c r="E4" s="112" t="s">
-        <v>637</v>
+      <c r="D4" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>638</v>
       </c>
       <c r="F4" s="56"/>
     </row>
@@ -12735,11 +12838,11 @@
       <c r="C13" s="89" t="s">
         <v>527</v>
       </c>
-      <c r="D13" s="112" t="s">
-        <v>637</v>
-      </c>
-      <c r="E13" s="112" t="s">
-        <v>637</v>
+      <c r="D13" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>638</v>
       </c>
       <c r="F13" s="56"/>
     </row>
@@ -12818,18 +12921,18 @@
       </c>
       <c r="F18" s="92"/>
     </row>
-    <row r="19" spans="2:6" ht="48">
+    <row r="19" spans="2:6" ht="88.8" customHeight="1">
       <c r="B19" s="88" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="89" t="s">
         <v>535</v>
       </c>
-      <c r="D19" s="112" t="s">
-        <v>639</v>
-      </c>
-      <c r="E19" s="112" t="s">
-        <v>639</v>
+      <c r="D19" s="110" t="s">
+        <v>643</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>643</v>
       </c>
       <c r="F19" s="56"/>
     </row>
@@ -13052,8 +13155,8 @@
       <c r="D39" s="90" t="s">
         <v>547</v>
       </c>
-      <c r="E39" s="113" t="s">
-        <v>635</v>
+      <c r="E39" s="91" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24">
@@ -14441,10 +14544,10 @@
         <v>567</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F173" s="56"/>
       <c r="G173" s="58"/>
@@ -15875,14 +15978,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
   <cols>
@@ -16200,14 +16298,14 @@
       <c r="C5" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="112" t="s">
-        <v>637</v>
-      </c>
-      <c r="E5" s="112" t="s">
-        <v>637</v>
-      </c>
-      <c r="F5" s="112" t="s">
-        <v>637</v>
+      <c r="D5" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>638</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>638</v>
       </c>
       <c r="G5" s="56"/>
     </row>
@@ -16408,14 +16506,14 @@
       <c r="C20" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="D20" s="114" t="s">
-        <v>641</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>641</v>
-      </c>
-      <c r="F20" s="114" t="s">
-        <v>641</v>
+      <c r="D20" s="113" t="s">
+        <v>640</v>
+      </c>
+      <c r="E20" s="113" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" s="113" t="s">
+        <v>640</v>
       </c>
       <c r="G20" s="107"/>
     </row>
@@ -16426,14 +16524,14 @@
       <c r="C21" s="89" t="s">
         <v>434</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="113" t="s">
+        <v>641</v>
+      </c>
+      <c r="E21" s="114" t="s">
         <v>642</v>
       </c>
-      <c r="E21" s="115" t="s">
-        <v>636</v>
-      </c>
-      <c r="F21" s="115" t="s">
-        <v>636</v>
+      <c r="F21" s="114" t="s">
+        <v>637</v>
       </c>
       <c r="G21" s="107"/>
     </row>
@@ -16462,13 +16560,13 @@
       <c r="C23" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="110" t="s">
         <v>631</v>
       </c>
       <c r="E23" s="109" t="s">
         <v>632</v>
       </c>
-      <c r="F23" s="113" t="s">
+      <c r="F23" s="111" t="s">
         <v>630</v>
       </c>
       <c r="G23" s="107"/>
